--- a/data/trans_dic/P43C-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P43C-Clase-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6829784988449839</v>
+        <v>0.6850409983452344</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7631055008568643</v>
+        <v>0.7646429661663984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7442735254608889</v>
+        <v>0.7433353757167305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6933605800155132</v>
+        <v>0.6940475727217178</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7916988220375855</v>
+        <v>0.7850924196511754</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8566910733787577</v>
+        <v>0.857613496239238</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8296865583943825</v>
+        <v>0.829739812095073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.783389756768219</v>
+        <v>0.7840918331883332</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6270294576545969</v>
+        <v>0.629860874720645</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7701059204191869</v>
+        <v>0.7723774962060427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7678791432767047</v>
+        <v>0.7725047198155406</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7040308243185451</v>
+        <v>0.701034914775311</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7234228015441337</v>
+        <v>0.7224189509712663</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8556428720120509</v>
+        <v>0.8585529925592352</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.852898058917158</v>
+        <v>0.8559006123610715</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.789331525984633</v>
+        <v>0.7879725457692398</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5752203989308419</v>
+        <v>0.5769669181298044</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6265452001128933</v>
+        <v>0.6216666548982339</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6489650961580208</v>
+        <v>0.6502730189668482</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.538546968388473</v>
+        <v>0.5446174067501545</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7152969335315309</v>
+        <v>0.724359995074084</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7381536394255568</v>
+        <v>0.7425276356390381</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7973105567452209</v>
+        <v>0.787380121461166</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6942179749521937</v>
+        <v>0.6878430798258286</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5277396913346396</v>
+        <v>0.525038076594861</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6920952814439658</v>
+        <v>0.6896886158988299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6670796295658777</v>
+        <v>0.6649547611179787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6097821696215571</v>
+        <v>0.6078300398649498</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6026526084570196</v>
+        <v>0.5998491828484785</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.755884374330305</v>
+        <v>0.75971474146783</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7302304708288225</v>
+        <v>0.7299521645729906</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6765713193783393</v>
+        <v>0.6759314873263529</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5165278062872738</v>
+        <v>0.5146067937993642</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6027770988676803</v>
+        <v>0.6010584446465197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5801420335845897</v>
+        <v>0.5834759180495906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4774139331166328</v>
+        <v>0.477621961630293</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5992434367860583</v>
+        <v>0.6005539463423402</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6770183032541516</v>
+        <v>0.6759174633018575</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6558310261807244</v>
+        <v>0.6564112289403621</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5434403219195385</v>
+        <v>0.5451703613326609</v>
       </c>
     </row>
     <row r="19">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3769692814746015</v>
+        <v>0.3798950426816856</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.472406674761169</v>
+        <v>0.4725837702459454</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4514241128239997</v>
+        <v>0.4524799245955611</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3817545724160065</v>
+        <v>0.3870421715180491</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4338186001156719</v>
+        <v>0.4332838239346426</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.534173104929091</v>
+        <v>0.531726209862838</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5160603215975496</v>
+        <v>0.5151043763213758</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4571202220082695</v>
+        <v>0.457560262484405</v>
       </c>
     </row>
     <row r="22">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5203513452842703</v>
+        <v>0.5207449142903628</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6353373775226577</v>
+        <v>0.6348470505552242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6236376335632904</v>
+        <v>0.6234893364186471</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5643377193630449</v>
+        <v>0.5617389594648107</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5538719897646339</v>
+        <v>0.5540788252734464</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.668170942322145</v>
+        <v>0.6668413449491315</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6562763409012966</v>
+        <v>0.6566142008188685</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5974154293922249</v>
+        <v>0.5969409204901533</v>
       </c>
     </row>
     <row r="25">
@@ -1176,16 +1176,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>206248</v>
+        <v>206871</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>239222</v>
+        <v>239704</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>255606</v>
+        <v>255284</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>234023</v>
+        <v>234255</v>
       </c>
     </row>
     <row r="7">
@@ -1196,16 +1196,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>239080</v>
+        <v>237085</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>268560</v>
+        <v>268849</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>284939</v>
+        <v>284958</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>264410</v>
+        <v>264647</v>
       </c>
     </row>
     <row r="8">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>230152</v>
+        <v>231191</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>256136</v>
+        <v>256892</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>284340</v>
+        <v>286052</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>216568</v>
+        <v>215646</v>
       </c>
     </row>
     <row r="11">
@@ -1280,16 +1280,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>265533</v>
+        <v>265165</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>284586</v>
+        <v>285554</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>315821</v>
+        <v>316933</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>242807</v>
+        <v>242389</v>
       </c>
     </row>
     <row r="12">
@@ -1344,16 +1344,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>96512</v>
+        <v>96805</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>161021</v>
+        <v>159768</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>107808</v>
+        <v>108025</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>70871</v>
+        <v>71670</v>
       </c>
     </row>
     <row r="15">
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>120014</v>
+        <v>121535</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>189705</v>
+        <v>190829</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>132452</v>
+        <v>130802</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>91357</v>
+        <v>90518</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1428,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>374048</v>
+        <v>372133</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>527074</v>
+        <v>525241</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>546496</v>
+        <v>544755</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>376064</v>
+        <v>374860</v>
       </c>
     </row>
     <row r="19">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>427144</v>
+        <v>425158</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>575654</v>
+        <v>578571</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>598231</v>
+        <v>598003</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>417254</v>
+        <v>416859</v>
       </c>
     </row>
     <row r="20">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>288964</v>
+        <v>287890</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>454678</v>
+        <v>453382</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>424064</v>
+        <v>426500</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>305573</v>
+        <v>305706</v>
       </c>
     </row>
     <row r="23">
@@ -1532,16 +1532,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>335238</v>
+        <v>335971</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>510679</v>
+        <v>509849</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>479390</v>
+        <v>479814</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>347833</v>
+        <v>348941</v>
       </c>
     </row>
     <row r="24">
@@ -1596,16 +1596,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>460261</v>
+        <v>463833</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>517846</v>
+        <v>518040</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>480171</v>
+        <v>481294</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>257874</v>
+        <v>261445</v>
       </c>
     </row>
     <row r="27">
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>529671</v>
+        <v>529018</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>585554</v>
+        <v>582871</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>548923</v>
+        <v>547906</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>308783</v>
+        <v>309080</v>
       </c>
     </row>
     <row r="28">
@@ -1680,16 +1680,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1730677</v>
+        <v>1731986</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2233300</v>
+        <v>2231576</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2178818</v>
+        <v>2178300</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1528791</v>
+        <v>1521751</v>
       </c>
     </row>
     <row r="31">
@@ -1700,16 +1700,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1842165</v>
+        <v>1842853</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2348714</v>
+        <v>2344041</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2292849</v>
+        <v>2294029</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1618398</v>
+        <v>1617113</v>
       </c>
     </row>
     <row r="32">
